--- a/business/大数据平台行业推广.xlsx
+++ b/business/大数据平台行业推广.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22320" windowHeight="10296" tabRatio="950" activeTab="1"/>
+    <workbookView windowWidth="22320" windowHeight="11232" tabRatio="881" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="思路" sheetId="1" r:id="rId1"/>
@@ -19,34 +19,91 @@
     <sheet name="D技术支持关键日志模板" sheetId="10" r:id="rId10"/>
     <sheet name="Z参数表" sheetId="11" r:id="rId11"/>
     <sheet name="Sheet9" sheetId="12" r:id="rId12"/>
-    <sheet name="项目实施总体阶段划分" sheetId="13" state="hidden" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet2" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet3" sheetId="15" r:id="rId15"/>
+    <sheet name="项目实施总体阶段划分" sheetId="16" state="hidden" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319">
   <si>
     <t>产品定位</t>
   </si>
   <si>
+    <t>框架</t>
+  </si>
+  <si>
+    <t>工具</t>
+  </si>
+  <si>
+    <t>平台</t>
+  </si>
+  <si>
+    <t>流程优化</t>
+  </si>
+  <si>
+    <t>业务创新</t>
+  </si>
+  <si>
     <t>目标客户</t>
   </si>
   <si>
+    <t>行业桥头堡</t>
+  </si>
+  <si>
+    <t>行业特有场景</t>
+  </si>
+  <si>
     <t>干系人类型及交互方式</t>
   </si>
   <si>
+    <t>技术部门</t>
+  </si>
+  <si>
+    <t>架构部门</t>
+  </si>
+  <si>
+    <t>IT主管</t>
+  </si>
+  <si>
     <t>合作方式</t>
   </si>
   <si>
+    <t>开源输出</t>
+  </si>
+  <si>
+    <t>外包实施</t>
+  </si>
+  <si>
+    <t>合作共建</t>
+  </si>
+  <si>
     <t>产品化开发流程</t>
   </si>
   <si>
+    <t>◆</t>
+  </si>
+  <si>
     <t>定制化开发流程</t>
   </si>
   <si>
     <t>利润分成</t>
+  </si>
+  <si>
+    <t>免费支持</t>
+  </si>
+  <si>
+    <t>实施费用</t>
+  </si>
+  <si>
+    <t>？？</t>
+  </si>
+  <si>
+    <t>高级功能</t>
   </si>
   <si>
     <t>产品思路</t>
@@ -1698,12 +1755,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1809,6 +1866,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1816,15 +1896,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1838,38 +1933,31 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1883,62 +1971,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2001,7 +2050,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2013,7 +2080,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2025,43 +2200,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2073,102 +2212,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="45">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -2633,52 +2682,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2701,6 +2713,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2712,6 +2733,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2730,153 +2766,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="43" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="39" applyFont="1">
       <alignment vertical="center"/>
@@ -3274,6 +3336,25 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -14888,54 +14969,243 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="E4:E19"/>
+  <dimension ref="C2:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
   <cols>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="28.625" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="8" max="10" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:5">
-      <c r="E4" t="s">
+    <row r="2" ht="13.35"/>
+    <row r="3" ht="13.2" spans="5:10">
+      <c r="E3" s="154"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="163"/>
+    </row>
+    <row r="4" ht="13.2" spans="5:10">
+      <c r="E4" s="156" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="5:5">
-      <c r="E7" t="s">
+      <c r="F4" s="157" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="5:5">
-      <c r="E10" t="s">
+      <c r="G4" s="157" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="5:5">
-      <c r="E13" t="s">
+      <c r="H4" s="157" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="5:5">
-      <c r="E15" t="s">
+      <c r="I4" s="164" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="5:5">
-      <c r="E16" t="s">
+      <c r="J4" s="165" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="5:5">
-      <c r="E19" t="s">
+    <row r="5" ht="13.2" spans="5:10">
+      <c r="E5" s="158"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="167"/>
+    </row>
+    <row r="6" ht="13.2" spans="5:10">
+      <c r="E6" s="158"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="159"/>
+      <c r="H6" s="159"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="167"/>
+    </row>
+    <row r="7" ht="13.2" spans="5:10">
+      <c r="E7" s="156" t="s">
         <v>6</v>
       </c>
+      <c r="F7" s="157" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="159" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="159"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="167"/>
+    </row>
+    <row r="8" ht="13.2" spans="5:10">
+      <c r="E8" s="158"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="167"/>
+    </row>
+    <row r="9" ht="13.2" spans="5:10">
+      <c r="E9" s="158"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="167"/>
+    </row>
+    <row r="10" ht="13.2" spans="5:10">
+      <c r="E10" s="156" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="157" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="164"/>
+      <c r="J10" s="167"/>
+    </row>
+    <row r="11" ht="13.2" spans="5:10">
+      <c r="E11" s="158"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="167"/>
+    </row>
+    <row r="12" ht="13.2" spans="5:10">
+      <c r="E12" s="158"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="167"/>
+    </row>
+    <row r="13" ht="13.2" spans="5:10">
+      <c r="E13" s="156" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="157" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="157" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="157" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="164"/>
+      <c r="J13" s="167"/>
+    </row>
+    <row r="14" ht="13.2" spans="5:10">
+      <c r="E14" s="158"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="167"/>
+    </row>
+    <row r="15" ht="13.2" spans="5:10">
+      <c r="E15" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="159"/>
+      <c r="H15" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="164"/>
+      <c r="J15" s="167"/>
+    </row>
+    <row r="16" ht="13.2" spans="5:10">
+      <c r="E16" s="156" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="159"/>
+      <c r="G16" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="164"/>
+      <c r="J16" s="167"/>
+    </row>
+    <row r="17" ht="13.2" spans="5:10">
+      <c r="E17" s="158"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="166"/>
+      <c r="J17" s="167"/>
+    </row>
+    <row r="18" ht="13.2" spans="5:10">
+      <c r="E18" s="158"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="167"/>
+    </row>
+    <row r="19" ht="13.2" spans="5:10">
+      <c r="E19" s="156" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="157" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="157" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="164"/>
+      <c r="J19" s="167"/>
+    </row>
+    <row r="20" ht="13.2" spans="5:10">
+      <c r="E20" s="158"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="167"/>
+    </row>
+    <row r="21" ht="13.2" spans="5:10">
+      <c r="E21" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="167"/>
+    </row>
+    <row r="22" ht="13.95" spans="5:10">
+      <c r="E22" s="160"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="168"/>
+      <c r="J22" s="169"/>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="153"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -14945,7 +15215,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -14974,154 +15244,154 @@
   <sheetData>
     <row r="7" spans="2:15">
       <c r="B7" s="1" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="2:15">
       <c r="B8" s="3" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="M8" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="O8" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="2:15">
       <c r="B9" s="3" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="M9" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="O9" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="3" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="O10" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" s="3" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="O11" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="4:9">
       <c r="D12" s="4" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="4:9">
       <c r="D13" s="4" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="4:9">
       <c r="D14" s="4" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" s="4" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" s="4" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="4" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="4" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="4" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -15152,6 +15422,54 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
@@ -15169,8 +15487,8 @@
   <sheetPr/>
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView showGridLines="0" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
@@ -15189,7 +15507,7 @@
   <sheetData>
     <row r="1" ht="13.2" spans="1:18">
       <c r="A1" s="106" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="107"/>
       <c r="C1" s="107"/>
@@ -15212,17 +15530,17 @@
     <row r="2" ht="13.2" spans="1:18">
       <c r="A2" s="108"/>
       <c r="B2" s="109" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C2" s="110" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D2" s="110" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E2" s="131"/>
       <c r="F2" s="132" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G2" s="133"/>
       <c r="H2" s="133"/>
@@ -15240,17 +15558,17 @@
     <row r="3" ht="36" customHeight="1" spans="1:18">
       <c r="A3" s="111"/>
       <c r="B3" s="112" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C3" s="113" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D3" s="113" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E3" s="134"/>
       <c r="F3" s="135" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G3" s="135"/>
       <c r="H3" s="135"/>
@@ -15260,7 +15578,7 @@
       <c r="L3" s="135"/>
       <c r="M3" s="135"/>
       <c r="N3" s="147" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="O3" s="119"/>
       <c r="P3" s="119"/>
@@ -15270,17 +15588,17 @@
     <row r="4" ht="36" customHeight="1" spans="1:18">
       <c r="A4" s="111"/>
       <c r="B4" s="112" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C4" s="113" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D4" s="113" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E4" s="136"/>
       <c r="F4" s="137" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G4" s="138"/>
       <c r="H4" s="138"/>
@@ -15290,7 +15608,7 @@
       <c r="L4" s="138"/>
       <c r="M4" s="148"/>
       <c r="N4" s="147" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="O4" s="119"/>
       <c r="P4" s="119"/>
@@ -15300,17 +15618,17 @@
     <row r="5" ht="46" customHeight="1" spans="1:18">
       <c r="A5" s="111"/>
       <c r="B5" s="112" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C5" s="113" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D5" s="113" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E5" s="136"/>
       <c r="F5" s="137" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G5" s="138"/>
       <c r="H5" s="138"/>
@@ -15320,7 +15638,7 @@
       <c r="L5" s="138"/>
       <c r="M5" s="148"/>
       <c r="N5" s="147" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="O5" s="119"/>
       <c r="P5" s="119"/>
@@ -15330,17 +15648,17 @@
     <row r="6" ht="42" customHeight="1" spans="1:18">
       <c r="A6" s="111"/>
       <c r="B6" s="112" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C6" s="113" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D6" s="113" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E6" s="136"/>
       <c r="F6" s="137" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G6" s="138"/>
       <c r="H6" s="138"/>
@@ -15350,7 +15668,7 @@
       <c r="L6" s="138"/>
       <c r="M6" s="148"/>
       <c r="N6" s="147" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="O6" s="119"/>
       <c r="P6" s="119"/>
@@ -15360,17 +15678,17 @@
     <row r="7" ht="22" customHeight="1" spans="1:18">
       <c r="A7" s="111"/>
       <c r="B7" s="112" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C7" s="114" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D7" s="115" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E7" s="136"/>
       <c r="F7" s="137" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G7" s="138"/>
       <c r="H7" s="138"/>
@@ -15380,7 +15698,7 @@
       <c r="L7" s="138"/>
       <c r="M7" s="148"/>
       <c r="N7" s="147" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="O7" s="119"/>
       <c r="P7" s="119"/>
@@ -15390,15 +15708,15 @@
     <row r="8" ht="13.8" spans="1:18">
       <c r="A8" s="111"/>
       <c r="B8" s="112" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C8" s="114" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D8" s="113"/>
       <c r="E8" s="136"/>
       <c r="F8" s="137" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G8" s="138"/>
       <c r="H8" s="138"/>
@@ -15408,7 +15726,7 @@
       <c r="L8" s="138"/>
       <c r="M8" s="148"/>
       <c r="N8" s="147" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="O8" s="119"/>
       <c r="P8" s="119"/>
@@ -15418,15 +15736,15 @@
     <row r="9" ht="39" customHeight="1" spans="1:18">
       <c r="A9" s="111"/>
       <c r="B9" s="112" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C9" s="114" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D9" s="113"/>
       <c r="E9" s="136"/>
       <c r="F9" s="137" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G9" s="138"/>
       <c r="H9" s="138"/>
@@ -15436,7 +15754,7 @@
       <c r="L9" s="138"/>
       <c r="M9" s="148"/>
       <c r="N9" s="147" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="O9" s="119"/>
       <c r="P9" s="119"/>
@@ -15446,15 +15764,15 @@
     <row r="10" ht="29" customHeight="1" spans="1:18">
       <c r="A10" s="108"/>
       <c r="B10" s="112" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C10" s="114" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D10" s="113"/>
       <c r="E10" s="136"/>
       <c r="F10" s="137" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="G10" s="138"/>
       <c r="H10" s="138"/>
@@ -15464,7 +15782,7 @@
       <c r="L10" s="138"/>
       <c r="M10" s="148"/>
       <c r="N10" s="147" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="O10" s="119"/>
       <c r="P10" s="119"/>
@@ -15475,7 +15793,7 @@
       <c r="A11" s="111"/>
       <c r="B11" s="113"/>
       <c r="C11" s="114" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D11" s="116"/>
       <c r="E11" s="139"/>
@@ -15488,7 +15806,7 @@
       <c r="L11" s="141"/>
       <c r="M11" s="149"/>
       <c r="N11" s="147" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="O11" s="113"/>
       <c r="P11" s="113"/>
@@ -15576,7 +15894,7 @@
     </row>
     <row r="16" ht="13.2" spans="1:18">
       <c r="A16" s="121" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B16" s="122"/>
       <c r="C16" s="122"/>
@@ -15599,7 +15917,7 @@
     <row r="17" ht="13.2" spans="1:18">
       <c r="A17" s="113"/>
       <c r="B17" s="114" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C17" s="123"/>
       <c r="D17" s="124"/>
@@ -15622,20 +15940,20 @@
       <c r="A18" s="113"/>
       <c r="B18" s="114"/>
       <c r="C18" s="114" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D18" s="114" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E18" s="114"/>
       <c r="F18" s="114" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="G18" s="114" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="H18" s="116" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="I18" s="116"/>
       <c r="J18" s="116"/>
@@ -15652,7 +15970,7 @@
       <c r="A19" s="113"/>
       <c r="B19" s="114"/>
       <c r="C19" s="114" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D19" s="116"/>
       <c r="E19" s="116"/>
@@ -15674,7 +15992,7 @@
       <c r="A20" s="113"/>
       <c r="B20" s="114"/>
       <c r="C20" s="114" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D20" s="116"/>
       <c r="E20" s="116"/>
@@ -15696,7 +16014,7 @@
       <c r="A21" s="113"/>
       <c r="B21" s="114"/>
       <c r="C21" s="114" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D21" s="116"/>
       <c r="E21" s="116"/>
@@ -15736,7 +16054,7 @@
     <row r="23" ht="13.2" spans="1:18">
       <c r="A23" s="113"/>
       <c r="B23" s="114" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C23" s="114"/>
       <c r="D23" s="116"/>
@@ -15759,7 +16077,7 @@
       <c r="A24" s="113"/>
       <c r="B24" s="112"/>
       <c r="C24" s="112" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D24" s="113"/>
       <c r="E24" s="113"/>
@@ -15781,7 +16099,7 @@
       <c r="A25" s="113"/>
       <c r="B25" s="112"/>
       <c r="C25" s="112" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D25" s="125"/>
       <c r="E25" s="125"/>
@@ -15803,7 +16121,7 @@
       <c r="A26" s="113"/>
       <c r="B26" s="112"/>
       <c r="C26" s="112" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D26" s="113"/>
       <c r="E26" s="113"/>
@@ -15825,7 +16143,7 @@
       <c r="A27" s="113"/>
       <c r="B27" s="112"/>
       <c r="C27" s="112" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D27" s="113"/>
       <c r="E27" s="113"/>
@@ -15847,7 +16165,7 @@
       <c r="A28" s="113"/>
       <c r="B28" s="112"/>
       <c r="C28" s="112" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D28" s="113"/>
       <c r="E28" s="113"/>
@@ -15869,7 +16187,7 @@
       <c r="A29" s="113"/>
       <c r="B29" s="112"/>
       <c r="C29" s="112" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D29" s="113"/>
       <c r="E29" s="113"/>
@@ -15890,7 +16208,7 @@
     <row r="30" ht="13.2" spans="1:18">
       <c r="A30" s="113"/>
       <c r="B30" s="112" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C30" s="112"/>
       <c r="D30" s="113"/>
@@ -15913,7 +16231,7 @@
       <c r="A31" s="113"/>
       <c r="B31" s="112"/>
       <c r="C31" s="112" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D31" s="113"/>
       <c r="E31" s="113"/>
@@ -15935,7 +16253,7 @@
       <c r="A32" s="113"/>
       <c r="B32" s="112"/>
       <c r="C32" s="112" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D32" s="113"/>
       <c r="E32" s="113"/>
@@ -15956,7 +16274,7 @@
     <row r="33" ht="13.2" spans="1:18">
       <c r="A33" s="113"/>
       <c r="B33" s="112" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C33" s="112"/>
       <c r="D33" s="113"/>
@@ -15978,7 +16296,7 @@
     <row r="34" ht="13.2" spans="1:18">
       <c r="A34" s="113"/>
       <c r="B34" s="112" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C34" s="112"/>
       <c r="D34" s="113"/>
@@ -16019,7 +16337,7 @@
     </row>
     <row r="37" ht="13.2" spans="1:18">
       <c r="A37" s="126" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B37" s="127"/>
       <c r="C37" s="127"/>
@@ -16041,13 +16359,13 @@
     </row>
     <row r="38" ht="13.2" spans="1:18">
       <c r="A38" s="113" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B38" s="113" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C38" s="128" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D38" s="113"/>
       <c r="E38" s="113"/>
@@ -16068,10 +16386,10 @@
     <row r="39" ht="13.2" spans="1:18">
       <c r="A39" s="113"/>
       <c r="B39" s="113" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C39" s="128" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D39" s="113"/>
       <c r="E39" s="113"/>
@@ -16092,10 +16410,10 @@
     <row r="40" ht="13.2" spans="1:18">
       <c r="A40" s="113"/>
       <c r="B40" s="113" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C40" s="128" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D40" s="113"/>
       <c r="E40" s="113"/>
@@ -16116,7 +16434,7 @@
     <row r="41" ht="13.2" spans="1:18">
       <c r="A41" s="113"/>
       <c r="B41" s="113" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C41" s="113"/>
       <c r="D41" s="113"/>
@@ -16138,10 +16456,10 @@
     <row r="42" ht="13.2" spans="1:18">
       <c r="A42" s="113"/>
       <c r="B42" s="113" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C42" s="128" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="D42" s="113"/>
       <c r="E42" s="113"/>
@@ -16162,10 +16480,10 @@
     <row r="43" ht="13.2" spans="1:18">
       <c r="A43" s="113"/>
       <c r="B43" s="113" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C43" s="128" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D43" s="113"/>
       <c r="E43" s="113"/>
@@ -16186,7 +16504,7 @@
     <row r="44" ht="13.2" spans="1:18">
       <c r="A44" s="113"/>
       <c r="B44" s="113" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C44" s="113"/>
       <c r="D44" s="113"/>
@@ -16208,10 +16526,10 @@
     <row r="45" ht="13.2" spans="1:18">
       <c r="A45" s="113"/>
       <c r="B45" s="113" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C45" s="128" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D45" s="113"/>
       <c r="E45" s="113"/>
@@ -16232,10 +16550,10 @@
     <row r="46" ht="13.2" spans="1:18">
       <c r="A46" s="113"/>
       <c r="B46" s="113" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C46" s="128" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D46" s="113"/>
       <c r="E46" s="113"/>
@@ -16255,13 +16573,13 @@
     </row>
     <row r="47" ht="13.2" spans="1:18">
       <c r="A47" s="113" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B47" s="113" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C47" s="128" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D47" s="113"/>
       <c r="E47" s="113"/>
@@ -16281,7 +16599,7 @@
     </row>
     <row r="48" ht="13.2" spans="1:18">
       <c r="A48" s="113" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B48" s="113"/>
       <c r="C48" s="113"/>
@@ -16304,10 +16622,10 @@
     <row r="49" ht="13.2" spans="1:18">
       <c r="A49" s="113"/>
       <c r="B49" s="113" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C49" s="129" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="D49" s="113"/>
       <c r="E49" s="113"/>
@@ -16327,34 +16645,34 @@
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="3" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C50" s="130" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="3" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C51" s="130" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="3" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="C52" s="130" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="3" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C53" s="130" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -16400,14 +16718,15 @@
   <sheetPr/>
   <dimension ref="C4:N36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:L33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
   <cols>
-    <col min="4" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
     <col min="7" max="7" width="12.125" customWidth="1"/>
     <col min="8" max="9" width="20.625" customWidth="1"/>
     <col min="10" max="10" width="9.375" customWidth="1"/>
@@ -16445,42 +16764,42 @@
     <row r="6" ht="13.2" spans="3:14">
       <c r="C6" s="99"/>
       <c r="D6" s="100" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="E6" s="104" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="F6" s="104" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G6" s="104" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="H6" s="104" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="I6" s="104" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="J6" s="104" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="K6" s="104" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="L6" s="105" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="M6" s="99"/>
       <c r="N6" s="99"/>
     </row>
-    <row r="7" ht="26.4" spans="3:14">
+    <row r="7" ht="13.2" spans="3:14">
       <c r="C7" s="99"/>
       <c r="D7" s="101" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E7" s="101" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F7" s="102"/>
       <c r="G7" s="102"/>
@@ -16497,7 +16816,7 @@
       <c r="D8" s="102"/>
       <c r="E8" s="102"/>
       <c r="F8" s="101" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="G8" s="102"/>
       <c r="H8" s="102"/>
@@ -16508,12 +16827,12 @@
       <c r="M8" s="99"/>
       <c r="N8" s="99"/>
     </row>
-    <row r="9" ht="26.4" spans="3:14">
+    <row r="9" ht="13.2" spans="3:14">
       <c r="C9" s="99"/>
       <c r="D9" s="102"/>
       <c r="E9" s="102"/>
       <c r="F9" s="101" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="G9" s="102"/>
       <c r="H9" s="102"/>
@@ -16529,7 +16848,7 @@
       <c r="D10" s="102"/>
       <c r="E10" s="102"/>
       <c r="F10" s="101" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="G10" s="102"/>
       <c r="H10" s="102"/>
@@ -16545,7 +16864,7 @@
       <c r="D11" s="102"/>
       <c r="E11" s="102"/>
       <c r="F11" s="101" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="G11" s="102"/>
       <c r="H11" s="102"/>
@@ -16561,7 +16880,7 @@
       <c r="D12" s="102"/>
       <c r="E12" s="102"/>
       <c r="F12" s="101" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="G12" s="102"/>
       <c r="H12" s="102"/>
@@ -16577,7 +16896,7 @@
       <c r="D13" s="102"/>
       <c r="E13" s="102"/>
       <c r="F13" s="101" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="G13" s="102"/>
       <c r="H13" s="102"/>
@@ -16588,12 +16907,12 @@
       <c r="M13" s="99"/>
       <c r="N13" s="99"/>
     </row>
-    <row r="14" ht="26.4" spans="3:14">
+    <row r="14" ht="13.2" spans="3:14">
       <c r="C14" s="99"/>
       <c r="D14" s="102"/>
       <c r="E14" s="102"/>
       <c r="F14" s="101" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="G14" s="102"/>
       <c r="H14" s="102"/>
@@ -16604,11 +16923,11 @@
       <c r="M14" s="99"/>
       <c r="N14" s="99"/>
     </row>
-    <row r="15" ht="26.4" spans="3:14">
+    <row r="15" ht="13.2" spans="3:14">
       <c r="C15" s="99"/>
       <c r="D15" s="101"/>
       <c r="E15" s="101" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="F15" s="102"/>
       <c r="G15" s="102"/>
@@ -16625,7 +16944,7 @@
       <c r="D16" s="102"/>
       <c r="E16" s="102"/>
       <c r="F16" s="101" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="G16" s="102"/>
       <c r="H16" s="102"/>
@@ -16641,7 +16960,7 @@
       <c r="D17" s="102"/>
       <c r="E17" s="102"/>
       <c r="F17" s="101" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="G17" s="102"/>
       <c r="H17" s="102"/>
@@ -16657,7 +16976,7 @@
       <c r="D18" s="102"/>
       <c r="E18" s="102"/>
       <c r="F18" s="101" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="G18" s="102"/>
       <c r="H18" s="102"/>
@@ -16673,7 +16992,7 @@
       <c r="D19" s="102"/>
       <c r="E19" s="102"/>
       <c r="F19" s="101" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="G19" s="102"/>
       <c r="H19" s="102"/>
@@ -16689,7 +17008,7 @@
       <c r="D20" s="102"/>
       <c r="E20" s="102"/>
       <c r="F20" s="101" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="G20" s="102"/>
       <c r="H20" s="102"/>
@@ -16700,11 +17019,11 @@
       <c r="M20" s="99"/>
       <c r="N20" s="99"/>
     </row>
-    <row r="21" ht="26.4" spans="3:14">
+    <row r="21" ht="13.2" spans="3:14">
       <c r="C21" s="99"/>
       <c r="D21" s="101"/>
       <c r="E21" s="101" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F21" s="102"/>
       <c r="G21" s="102"/>
@@ -16721,7 +17040,7 @@
       <c r="D22" s="102"/>
       <c r="E22" s="102"/>
       <c r="F22" s="101" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="G22" s="102"/>
       <c r="H22" s="102"/>
@@ -16737,7 +17056,7 @@
       <c r="D23" s="102"/>
       <c r="E23" s="102"/>
       <c r="F23" s="101" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="G23" s="102"/>
       <c r="H23" s="102"/>
@@ -16748,11 +17067,11 @@
       <c r="M23" s="99"/>
       <c r="N23" s="99"/>
     </row>
-    <row r="24" ht="26.4" spans="3:14">
+    <row r="24" ht="13.2" spans="3:14">
       <c r="C24" s="99"/>
       <c r="D24" s="101"/>
       <c r="E24" s="101" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F24" s="102"/>
       <c r="G24" s="102"/>
@@ -16769,7 +17088,7 @@
       <c r="D25" s="102"/>
       <c r="E25" s="102"/>
       <c r="F25" s="101" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="G25" s="102"/>
       <c r="H25" s="102"/>
@@ -16785,7 +17104,7 @@
       <c r="D26" s="102"/>
       <c r="E26" s="102"/>
       <c r="F26" s="101" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="G26" s="102"/>
       <c r="H26" s="102"/>
@@ -16801,7 +17120,7 @@
       <c r="D27" s="102"/>
       <c r="E27" s="102"/>
       <c r="F27" s="101" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="G27" s="102"/>
       <c r="H27" s="102"/>
@@ -16817,7 +17136,7 @@
       <c r="D28" s="102"/>
       <c r="E28" s="102"/>
       <c r="F28" s="101" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="G28" s="102"/>
       <c r="H28" s="102"/>
@@ -16833,7 +17152,7 @@
       <c r="D29" s="102"/>
       <c r="E29" s="102"/>
       <c r="F29" s="101" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="G29" s="102"/>
       <c r="H29" s="102"/>
@@ -16844,11 +17163,11 @@
       <c r="M29" s="99"/>
       <c r="N29" s="99"/>
     </row>
-    <row r="30" ht="26.4" spans="3:14">
+    <row r="30" ht="13.2" spans="3:14">
       <c r="C30" s="99"/>
       <c r="D30" s="101"/>
       <c r="E30" s="101" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F30" s="102"/>
       <c r="G30" s="102"/>
@@ -16865,7 +17184,7 @@
       <c r="D31" s="102"/>
       <c r="E31" s="102"/>
       <c r="F31" s="101" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G31" s="102"/>
       <c r="H31" s="102"/>
@@ -16881,7 +17200,7 @@
       <c r="D32" s="102"/>
       <c r="E32" s="102"/>
       <c r="F32" s="101" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="G32" s="102"/>
       <c r="H32" s="102"/>
@@ -16895,7 +17214,7 @@
     <row r="33" ht="13.2" spans="3:14">
       <c r="C33" s="99"/>
       <c r="D33" s="101" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="E33" s="101"/>
       <c r="F33" s="102"/>
@@ -16976,12 +17295,12 @@
   <sheetData>
     <row r="7" spans="4:4">
       <c r="D7" s="98" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" s="98" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" ht="13.2" spans="4:12">
@@ -17018,7 +17337,7 @@
   <dimension ref="B1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6" outlineLevelCol="7"/>
@@ -17035,63 +17354,63 @@
     <row r="1" ht="13.35"/>
     <row r="2" spans="2:8">
       <c r="B2" s="88" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E2" s="89" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="F2" s="89" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="G2" s="89" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="H2" s="95" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="90" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="H3" s="96"/>
     </row>
     <row r="4" ht="25.2" spans="2:8">
       <c r="B4" s="90"/>
       <c r="C4" s="87" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="D4" s="91" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="H4" s="96"/>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="90"/>
       <c r="C5" s="87" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="H5" s="96"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="90" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="H6" s="96"/>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="90"/>
       <c r="C7" s="87" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="D7" s="87" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="H7" s="96"/>
     </row>
@@ -17105,14 +17424,14 @@
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="90" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="H10" s="96"/>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="90"/>
       <c r="C11" s="87" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="H11" s="96"/>
     </row>
@@ -17202,36 +17521,36 @@
     <row r="1" ht="13.35"/>
     <row r="2" ht="13.2" spans="3:11">
       <c r="C2" s="77" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="E2" s="78" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="G2" s="78" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="H2" s="78" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="I2" s="78" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="J2" s="78" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="K2" s="84" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="3:11">
       <c r="C3" s="79" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D3" s="80"/>
       <c r="E3" s="80"/>
@@ -17245,7 +17564,7 @@
     <row r="4" ht="13.2" spans="3:11">
       <c r="C4" s="79"/>
       <c r="D4" s="80" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="E4" s="80"/>
       <c r="F4" s="80"/>
@@ -17258,7 +17577,7 @@
     <row r="5" ht="13.2" spans="3:11">
       <c r="C5" s="79"/>
       <c r="D5" s="80" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
@@ -17271,7 +17590,7 @@
     <row r="6" ht="13.2" spans="3:11">
       <c r="C6" s="79"/>
       <c r="D6" s="80" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="E6" s="80"/>
       <c r="F6" s="80"/>
@@ -17284,7 +17603,7 @@
     <row r="7" ht="13.2" spans="3:11">
       <c r="C7" s="79"/>
       <c r="D7" s="80" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="E7" s="80"/>
       <c r="F7" s="80"/>
@@ -17297,7 +17616,7 @@
     <row r="8" ht="13.2" spans="3:11">
       <c r="C8" s="79"/>
       <c r="D8" s="80" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="E8" s="80"/>
       <c r="F8" s="80"/>
@@ -17310,7 +17629,7 @@
     <row r="9" ht="13.2" spans="3:11">
       <c r="C9" s="79"/>
       <c r="D9" s="80" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="E9" s="80"/>
       <c r="F9" s="80"/>
@@ -17344,7 +17663,7 @@
     </row>
     <row r="12" ht="13.2" spans="3:11">
       <c r="C12" s="79" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D12" s="80"/>
       <c r="E12" s="80"/>
@@ -17358,7 +17677,7 @@
     <row r="13" ht="13.2" spans="3:11">
       <c r="C13" s="79"/>
       <c r="D13" s="80" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="E13" s="80"/>
       <c r="F13" s="80"/>
@@ -17371,7 +17690,7 @@
     <row r="14" ht="13.2" spans="3:11">
       <c r="C14" s="79"/>
       <c r="D14" s="80" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="E14" s="80"/>
       <c r="F14" s="80"/>
@@ -17384,7 +17703,7 @@
     <row r="15" ht="13.2" spans="3:11">
       <c r="C15" s="79"/>
       <c r="D15" s="80" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="E15" s="80"/>
       <c r="F15" s="80"/>
@@ -17397,7 +17716,7 @@
     <row r="16" ht="13.2" spans="3:11">
       <c r="C16" s="79"/>
       <c r="D16" s="80" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="E16" s="80"/>
       <c r="F16" s="80"/>
@@ -17410,7 +17729,7 @@
     <row r="17" ht="13.2" spans="3:11">
       <c r="C17" s="79"/>
       <c r="D17" s="80" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="E17" s="80"/>
       <c r="F17" s="80"/>
@@ -17423,7 +17742,7 @@
     <row r="18" ht="13.2" spans="3:11">
       <c r="C18" s="79"/>
       <c r="D18" s="80" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
@@ -17436,7 +17755,7 @@
     <row r="19" ht="13.2" spans="3:11">
       <c r="C19" s="79"/>
       <c r="D19" s="80" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
@@ -17561,7 +17880,7 @@
   <sheetData>
     <row r="1" ht="40.5" customHeight="1" spans="2:4">
       <c r="B1" s="34" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
@@ -17569,66 +17888,66 @@
     <row r="2" ht="13.35"/>
     <row r="3" ht="25.5" customHeight="1" spans="2:6">
       <c r="B3" s="35" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="60" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" ht="28.5" customHeight="1" spans="2:6">
       <c r="B4" s="38" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="E4" s="61"/>
       <c r="F4" s="62" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" ht="30.75" customHeight="1" spans="2:6">
       <c r="B5" s="41" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="C5" s="42">
         <v>42069</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="E5" s="63"/>
       <c r="F5" s="64" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" ht="30.75" customHeight="1" spans="2:6">
       <c r="B6" s="41" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="43" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="E6" s="63"/>
       <c r="F6" s="64"/>
     </row>
     <row r="7" ht="76.5" customHeight="1" spans="2:6">
       <c r="B7" s="41" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="D7" s="45"/>
       <c r="E7" s="51"/>
@@ -17636,108 +17955,108 @@
     </row>
     <row r="8" ht="76.5" customHeight="1" spans="2:6">
       <c r="B8" s="46" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" ht="39" customHeight="1" spans="2:6">
       <c r="B9" s="48"/>
       <c r="C9" s="45"/>
       <c r="D9" s="45" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" ht="41.25" customHeight="1" spans="2:6">
       <c r="B10" s="48"/>
       <c r="C10" s="45"/>
       <c r="D10" s="45" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" ht="41.25" customHeight="1" spans="2:6">
       <c r="B11" s="48"/>
       <c r="C11" s="45"/>
       <c r="D11" s="45" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" ht="41.25" customHeight="1" spans="2:6">
       <c r="B12" s="48"/>
       <c r="C12" s="45"/>
       <c r="D12" s="45" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" ht="41.25" customHeight="1" spans="2:6">
       <c r="B13" s="48"/>
       <c r="C13" s="45"/>
       <c r="D13" s="45" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" ht="41.25" customHeight="1" spans="2:6">
       <c r="B14" s="38"/>
       <c r="C14" s="45"/>
       <c r="D14" s="45" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" ht="59.25" customHeight="1" spans="2:6">
       <c r="B15" s="46" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="E15" s="66"/>
       <c r="F15" s="67"/>
@@ -17745,197 +18064,197 @@
     <row r="16" ht="59.25" customHeight="1" spans="2:6">
       <c r="B16" s="38"/>
       <c r="C16" s="49" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="E16" s="68"/>
       <c r="F16" s="69"/>
     </row>
     <row r="17" ht="45.75" customHeight="1" spans="2:6">
       <c r="B17" s="41" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="E17" s="63"/>
       <c r="F17" s="64" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" ht="15.6" spans="2:6">
       <c r="B18" s="46" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="E18" s="70"/>
       <c r="F18" s="71" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" ht="26.25" customHeight="1" spans="2:6">
       <c r="B19" s="48"/>
       <c r="C19" s="44" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="D19" s="54" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="E19" s="72"/>
       <c r="F19" s="64" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" ht="26.25" customHeight="1" spans="2:6">
       <c r="B20" s="48"/>
       <c r="C20" s="44" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="E20" s="72"/>
       <c r="F20" s="64" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" ht="26.25" customHeight="1" spans="2:6">
       <c r="B21" s="48"/>
       <c r="C21" s="44" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="D21" s="54" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="E21" s="72"/>
       <c r="F21" s="64" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1" spans="2:6">
       <c r="B22" s="48"/>
       <c r="C22" s="44" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="D22" s="54" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="E22" s="72"/>
       <c r="F22" s="64" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" ht="26.25" customHeight="1" spans="2:6">
       <c r="B23" s="38"/>
       <c r="C23" s="44" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="D23" s="54" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="E23" s="72"/>
       <c r="F23" s="64" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" ht="26.25" customHeight="1" spans="2:6">
       <c r="B24" s="41" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="E24" s="70"/>
       <c r="F24" s="71" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" ht="26.25" customHeight="1" spans="2:6">
       <c r="B25" s="41"/>
       <c r="C25" s="44" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="E25" s="73"/>
       <c r="F25" s="74" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" ht="26.25" customHeight="1" spans="2:6">
       <c r="B26" s="41"/>
       <c r="C26" s="44" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="E26" s="73"/>
       <c r="F26" s="74" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" ht="26.25" customHeight="1" spans="2:6">
       <c r="B27" s="56"/>
       <c r="C27" s="57" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="E27" s="73"/>
       <c r="F27" s="74" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" ht="15.6" spans="2:6">
       <c r="B28" s="41" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D28" s="49" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="E28" s="53" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="F28" s="71" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" ht="33.75" customHeight="1" spans="2:6">
       <c r="B29" s="41"/>
       <c r="C29" s="44" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="D29" s="58" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="E29" s="55" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="F29" s="74"/>
     </row>
     <row r="30" ht="33.75" customHeight="1" spans="2:6">
       <c r="B30" s="41"/>
       <c r="C30" s="44" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="D30" s="58"/>
       <c r="E30" s="55"/>
@@ -17944,7 +18263,7 @@
     <row r="31" ht="33.75" customHeight="1" spans="2:6">
       <c r="B31" s="56"/>
       <c r="C31" s="57" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="D31" s="59"/>
       <c r="E31" s="75"/>
@@ -17978,11 +18297,11 @@
     <mergeCell ref="B28:B31"/>
   </mergeCells>
   <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E14">
+      <formula1>Z参数表!$O$8:$O$11</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17">
       <formula1>"董事长或行级领导,部门经理,项目经理,普通业务员"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E14">
-      <formula1>Z参数表!$O$8:$O$11</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
       <formula1>Z参数表!$M$8:$M$9</formula1>
@@ -18007,7 +18326,7 @@
   <sheetPr/>
   <dimension ref="E5:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11:I11"/>
     </sheetView>
   </sheetViews>
@@ -18023,64 +18342,64 @@
     <row r="5" ht="13.35"/>
     <row r="6" ht="13.95" spans="5:9">
       <c r="E6" s="5" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="26" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" ht="13.2" spans="5:9">
       <c r="E7" s="8" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="27" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" ht="13.2" spans="5:9">
       <c r="E8" s="12" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="F8" s="13">
         <v>42069</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="28" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" ht="13.95" spans="5:9">
       <c r="E9" s="16" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="18" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="29"/>
     </row>
     <row r="10" ht="13.2" spans="5:9">
       <c r="E10" s="20" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
@@ -18088,10 +18407,10 @@
     </row>
     <row r="11" ht="13.2" spans="5:9">
       <c r="E11" s="22" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
@@ -18099,10 +18418,10 @@
     </row>
     <row r="12" ht="13.2" spans="5:9">
       <c r="E12" s="22" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
@@ -18110,10 +18429,10 @@
     </row>
     <row r="13" ht="13.2" spans="5:9">
       <c r="E13" s="22" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
@@ -18121,10 +18440,10 @@
     </row>
     <row r="14" ht="13.2" spans="5:9">
       <c r="E14" s="22" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
@@ -18132,10 +18451,10 @@
     </row>
     <row r="15" ht="13.2" spans="5:9">
       <c r="E15" s="22" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
@@ -18143,10 +18462,10 @@
     </row>
     <row r="16" ht="13.2" spans="5:9">
       <c r="E16" s="22" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
@@ -18154,10 +18473,10 @@
     </row>
     <row r="17" ht="13.2" spans="5:9">
       <c r="E17" s="22" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
@@ -18165,10 +18484,10 @@
     </row>
     <row r="18" ht="13.2" spans="5:9">
       <c r="E18" s="22" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
@@ -18176,10 +18495,10 @@
     </row>
     <row r="19" ht="13.2" spans="5:9">
       <c r="E19" s="22" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -18187,10 +18506,10 @@
     </row>
     <row r="20" ht="13.2" spans="5:9">
       <c r="E20" s="22" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
@@ -18198,10 +18517,10 @@
     </row>
     <row r="21" ht="13.2" spans="5:9">
       <c r="E21" s="22" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
@@ -18209,10 +18528,10 @@
     </row>
     <row r="22" ht="13.2" spans="5:9">
       <c r="E22" s="22" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
@@ -18220,10 +18539,10 @@
     </row>
     <row r="23" ht="13.2" spans="5:9">
       <c r="E23" s="22" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
@@ -18231,10 +18550,10 @@
     </row>
     <row r="24" ht="13.2" spans="5:9">
       <c r="E24" s="22" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
@@ -18242,10 +18561,10 @@
     </row>
     <row r="25" ht="13.2" spans="5:9">
       <c r="E25" s="22" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
@@ -18253,10 +18572,10 @@
     </row>
     <row r="26" ht="13.95" spans="5:9">
       <c r="E26" s="24" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
